--- a/experimentos/parte_1_experimentos/final/resultados_ollama_llama3_3_70b_zeroshot.xlsx
+++ b/experimentos/parte_1_experimentos/final/resultados_ollama_llama3_3_70b_zeroshot.xlsx
@@ -464,12 +464,12 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Category: CAT1  
-Explanation: The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames (including 'root') from a specific IP address, indicating unauthorized access attempts to user or administrator accounts, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password" further support this classification.</t>
+Explanation: The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames (including "root") from a specific IP address, indicating unauthorized access attempts to user or administrator accounts, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password" further support this classification.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT1', 'Explanation': 'The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames (including \'root\') from a specific IP address, indicating unauthorized access attempts to user or administrator accounts, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password" further support this classification.'}</t>
+          <t>{'Category': 'CAT1', 'Explanation': 'The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames (including "root") from a specific IP address, indicating unauthorized access attempts to user or administrator accounts, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password" further support this classification.'}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames (including 'root') from a specific IP address, indicating unauthorized access attempts to user or administrator accounts, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password" further support this classification.</t>
+          <t>The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames (including "root") from a specific IP address, indicating unauthorized access attempts to user or administrator accounts, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password" further support this classification.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,12 +492,12 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Category: CAT1  
-Explanation: The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts through SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password for invalid user" support this classification.</t>
+Explanation: The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts through SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password for invalid user" further support this classification.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT1', 'Explanation': 'The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts through SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password for invalid user" support this classification.'}</t>
+          <t>{'Category': 'CAT1', 'Explanation': 'The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts through SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password for invalid user" further support this classification.'}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts through SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password for invalid user" support this classification.</t>
+          <t>The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts through SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure" and "Failed password for invalid user" further support this classification.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,12 +520,12 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Category: CAT7  
-Explanation: The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics such as phishing or spamming, even though the primary action is reporting and requesting investigation rather than direct deception. The core issue revolves around potential misuse of email services for fraudulent or malicious purposes, which can be classified under social engineering due to the intent behind the detected abuse.</t>
+Explanation: The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activities. This scenario suggests deception or manipulation to potentially gain access or send unauthorized emails, aligning with social engineering tactics where attackers might use spoofed or compromised accounts to deceive recipients. The presence of log lines indicating rejected recipient addresses and lost connections after DATA commands from the reported IP address further supports this classification, as it implies attempts at unauthorized communication that could be part of a broader social engineering campaign.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics such as phishing or spamming, even though the primary action is reporting and requesting investigation rather than direct deception. The core issue revolves around potential misuse of email services for fraudulent or malicious purposes, which can be classified under social engineering due to the intent behind the detected abuse.'}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activities. This scenario suggests deception or manipulation to potentially gain access or send unauthorized emails, aligning with social engineering tactics where attackers might use spoofed or compromised accounts to deceive recipients. The presence of log lines indicating rejected recipient addresses and lost connections after DATA commands from the reported IP address further supports this classification, as it implies attempts at unauthorized communication that could be part of a broader social engineering campaign.'}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics such as phishing or spamming, even though the primary action is reporting and requesting investigation rather than direct deception. The core issue revolves around potential misuse of email services for fraudulent or malicious purposes, which can be classified under social engineering due to the intent behind the detected abuse.</t>
+          <t>The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activities. This scenario suggests deception or manipulation to potentially gain access or send unauthorized emails, aligning with social engineering tactics where attackers might use spoofed or compromised accounts to deceive recipients. The presence of log lines indicating rejected recipient addresses and lost connections after DATA commands from the reported IP address further supports this classification, as it implies attempts at unauthorized communication that could be part of a broader social engineering campaign.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -548,12 +548,12 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Category: CAT1  
-Explanation: The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts via SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure," "Failed password for invalid user," and "Invalid user" from the log excerpts support this classification.</t>
+Explanation: The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts via SSH, which aligns with the definition of Account Compromise (CAT1). The log lines provided show repeated authentication failures, suggesting brute force or credential guessing attacks, further supporting this classification.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT1', 'Explanation': 'The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts via SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure," "Failed password for invalid user," and "Invalid user" from the log excerpts support this classification.'}</t>
+          <t>{'Category': 'CAT1', 'Explanation': 'The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts via SSH, which aligns with the definition of Account Compromise (CAT1). The log lines provided show repeated authentication failures, suggesting brute force or credential guessing attacks, further supporting this classification.'}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts via SSH, which aligns with the definition of Account Compromise (CAT1). Key phrases such as "authentication failure," "Failed password for invalid user," and "Invalid user" from the log excerpts support this classification.</t>
+          <t>The incident description involves multiple attempts of "Invalid user" and "Failed password" for different usernames from a specific IP address, indicating unauthorized access attempts to user accounts via SSH, which aligns with the definition of Account Compromise (CAT1). The log lines provided show repeated authentication failures, suggesting brute force or credential guessing attacks, further supporting this classification.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,12 +632,12 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Category: CAT7  
-Explanation: The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics, even though it's more about the reporting of such activities rather than direct deception of individuals. However, since the core issue revolves around the misuse of email services which could be a result of social engineering (like phishing), and given the context provided doesn't perfectly fit other categories like malware or vulnerability exploitation directly, CAT7 seems to be the closest match as it involves potential deceptive practices aimed at exploiting email services.</t>
+Explanation: The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious activity. This indicates deception or manipulation to potentially gain access or send unauthorized emails, aligning with social engineering tactics where attackers may use spoofed or compromised accounts to deceive recipients. The logs provided show attempts to connect and send emails that were rejected, suggesting an attempt at unauthorized communication, which is a hallmark of social engineering attacks aimed at exploiting human vulnerabilities rather than technical ones.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': "The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics, even though it's more about the reporting of such activities rather than direct deception of individuals. However, since the core issue revolves around the misuse of email services which could be a result of social engineering (like phishing), and given the context provided doesn't perfectly fit other categories like malware or vulnerability exploitation directly, CAT7 seems to be the closest match as it involves potential deceptive practices aimed at exploiting email services."}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious activity. This indicates deception or manipulation to potentially gain access or send unauthorized emails, aligning with social engineering tactics where attackers may use spoofed or compromised accounts to deceive recipients. The logs provided show attempts to connect and send emails that were rejected, suggesting an attempt at unauthorized communication, which is a hallmark of social engineering attacks aimed at exploiting human vulnerabilities rather than technical ones.'}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics, even though it's more about the reporting of such activities rather than direct deception of individuals. However, since the core issue revolves around the misuse of email services which could be a result of social engineering (like phishing), and given the context provided doesn't perfectly fit other categories like malware or vulnerability exploitation directly, CAT7 seems to be the closest match as it involves potential deceptive practices aimed at exploiting email services.</t>
+          <t>The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious activity. This indicates deception or manipulation to potentially gain access or send unauthorized emails, aligning with social engineering tactics where attackers may use spoofed or compromised accounts to deceive recipients. The logs provided show attempts to connect and send emails that were rejected, suggesting an attempt at unauthorized communication, which is a hallmark of social engineering attacks aimed at exploiting human vulnerabilities rather than technical ones.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -660,12 +660,12 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Category: CAT7  
-Explanation: The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics, such as phishing or spamming, even though the primary action is reporting and requesting investigation rather than direct deception. The core issue revolves around potential misuse of email services for fraudulent or malicious purposes, which can be classified under social engineering due to the intent behind the detected abuse.</t>
+Explanation: The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics. Although the primary issue seems to be related to potential misuse or abuse of resources (which could also suggest CAT10), the method of detection and reporting implies an attempt at deceptive practices, making social engineering (CAT7) a more fitting category due to the involvement of automated reports and potential deception in email communications.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics, such as phishing or spamming, even though the primary action is reporting and requesting investigation rather than direct deception. The core issue revolves around potential misuse of email services for fraudulent or malicious purposes, which can be classified under social engineering due to the intent behind the detected abuse.'}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics. Although the primary issue seems to be related to potential misuse or abuse of resources (which could also suggest CAT10), the method of detection and reporting implies an attempt at deceptive practices, making social engineering (CAT7) a more fitting category due to the involvement of automated reports and potential deception in email communications.'}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process (Fail2Ban) due to suspicious email activity. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics, such as phishing or spamming, even though the primary action is reporting and requesting investigation rather than direct deception. The core issue revolves around potential misuse of email services for fraudulent or malicious purposes, which can be classified under social engineering due to the intent behind the detected abuse.</t>
+          <t>The incident description involves a report of abuse from an IP address, which was detected and reported by an automated process. This suggests deception or manipulation to gain access or send unauthorized emails, aligning with social engineering tactics. Although the primary issue seems to be related to potential misuse or abuse of resources (which could also suggest CAT10), the method of detection and reporting implies an attempt at deceptive practices, making social engineering (CAT7) a more fitting category due to the involvement of automated reports and potential deception in email communications.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -688,12 +688,12 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Category: CAT1  
-Explanation: The incident description mentions a machine possibly being compromised and used as a base for attacks or a legitimate user being involved in activities contrary to the network's acceptable use policy, indicating potential unauthorized access to user or administrator accounts. Additionally, it specifically mentions the machine being a victim of a brute-force attack against SSH, which aligns with examples of account compromise such as credential phishing, SSH brute force, and OAuth token theft.</t>
+Explanation: The incident description mentions a machine possibly being compromised and used as a base for attacks or a legitimate user being involved in malicious activities, which aligns with account compromise. Additionally, it specifically mentions the machine being a victim of a brute-force attack against SSH, further supporting the classification under account compromise due to the attempt to gain unauthorized access through credential guessing.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT1', 'Explanation': "The incident description mentions a machine possibly being compromised and used as a base for attacks or a legitimate user being involved in activities contrary to the network's acceptable use policy, indicating potential unauthorized access to user or administrator accounts. Additionally, it specifically mentions the machine being a victim of a brute-force attack against SSH, which aligns with examples of account compromise such as credential phishing, SSH brute force, and OAuth token theft."}</t>
+          <t>{'Category': 'CAT1', 'Explanation': 'The incident description mentions a machine possibly being compromised and used as a base for attacks or a legitimate user being involved in malicious activities, which aligns with account compromise. Additionally, it specifically mentions the machine being a victim of a brute-force attack against SSH, further supporting the classification under account compromise due to the attempt to gain unauthorized access through credential guessing.'}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The incident description mentions a machine possibly being compromised and used as a base for attacks or a legitimate user being involved in activities contrary to the network's acceptable use policy, indicating potential unauthorized access to user or administrator accounts. Additionally, it specifically mentions the machine being a victim of a brute-force attack against SSH, which aligns with examples of account compromise such as credential phishing, SSH brute force, and OAuth token theft.</t>
+          <t>The incident description mentions a machine possibly being compromised and used as a base for attacks or a legitimate user being involved in malicious activities, which aligns with account compromise. Additionally, it specifically mentions the machine being a victim of a brute-force attack against SSH, further supporting the classification under account compromise due to the attempt to gain unauthorized access through credential guessing.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -716,12 +716,12 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Category: CAT3  
-Explanation: The incident description explicitly mentions a "DDoS botnet" attack originating from a compromised host, causing significant packet loss and requiring emergency null-route operation to mitigate. This directly aligns with the definition of a Denial of Service Attack, which is characterized by making systems unavailable, often through volumetric attacks like those described.</t>
+Explanation: The incident description explicitly mentions a "DDoS botnet" attack, with the affected IP address participating in a coordinated denial-of-service attack that caused significant packet loss and required emergency mitigation. This directly aligns with the definition of a Denial of Service Attack (CAT3), which includes volumetric DoS or DDoS attacks aimed at making systems unavailable.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT3', 'Explanation': 'The incident description explicitly mentions a "DDoS botnet" attack originating from a compromised host, causing significant packet loss and requiring emergency null-route operation to mitigate. This directly aligns with the definition of a Denial of Service Attack, which is characterized by making systems unavailable, often through volumetric attacks like those described.'}</t>
+          <t>{'Category': 'CAT3', 'Explanation': 'The incident description explicitly mentions a "DDoS botnet" attack, with the affected IP address participating in a coordinated denial-of-service attack that caused significant packet loss and required emergency mitigation. This directly aligns with the definition of a Denial of Service Attack (CAT3), which includes volumetric DoS or DDoS attacks aimed at making systems unavailable.'}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident description explicitly mentions a "DDoS botnet" attack originating from a compromised host, causing significant packet loss and requiring emergency null-route operation to mitigate. This directly aligns with the definition of a Denial of Service Attack, which is characterized by making systems unavailable, often through volumetric attacks like those described.</t>
+          <t>The incident description explicitly mentions a "DDoS botnet" attack, with the affected IP address participating in a coordinated denial-of-service attack that caused significant packet loss and required emergency mitigation. This directly aligns with the definition of a Denial of Service Attack (CAT3), which includes volumetric DoS or DDoS attacks aimed at making systems unavailable.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -744,12 +744,12 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Category: CAT3  
-Explanation: The incident description explicitly mentions a "DDoS botnet" attack, with a specific IP address under attack and details about the traffic volume (~92.0 Mbps) and the impact on the network (significant packet loss). This aligns perfectly with the definition of a Denial of Service Attack, making CAT3 the most appropriate classification.</t>
+Explanation: The incident description explicitly mentions a "DDoS botnet" attack, with a specific IP address under attack and details about the traffic volume (~92.0 Mbps) and the impact on the network (significant packet loss). This aligns perfectly with the definition of a Denial of Service Attack, which is characterized by making systems unavailable through overwhelming them with traffic, fitting the CAT3 category.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT3', 'Explanation': 'The incident description explicitly mentions a "DDoS botnet" attack, with a specific IP address under attack and details about the traffic volume (~92.0 Mbps) and the impact on the network (significant packet loss). This aligns perfectly with the definition of a Denial of Service Attack, making CAT3 the most appropriate classification.'}</t>
+          <t>{'Category': 'CAT3', 'Explanation': 'The incident description explicitly mentions a "DDoS botnet" attack, with a specific IP address under attack and details about the traffic volume (~92.0 Mbps) and the impact on the network (significant packet loss). This aligns perfectly with the definition of a Denial of Service Attack, which is characterized by making systems unavailable through overwhelming them with traffic, fitting the CAT3 category.'}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident description explicitly mentions a "DDoS botnet" attack, with a specific IP address under attack and details about the traffic volume (~92.0 Mbps) and the impact on the network (significant packet loss). This aligns perfectly with the definition of a Denial of Service Attack, making CAT3 the most appropriate classification.</t>
+          <t>The incident description explicitly mentions a "DDoS botnet" attack, with a specific IP address under attack and details about the traffic volume (~92.0 Mbps) and the impact on the network (significant packet loss). This aligns perfectly with the definition of a Denial of Service Attack, which is characterized by making systems unavailable through overwhelming them with traffic, fitting the CAT3 category.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -772,12 +772,12 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Category: CAT3  
-Explanation: The incident description explicitly mentions a "DDoS botnet" attack, with the target IP address participating in a coordinated attack causing significant packet loss and requiring emergency null-route operation to mitigate. This directly aligns with the definition of a Denial of Service Attack, making CAT3 the appropriate classification.</t>
+Explanation: The incident description explicitly mentions a "DDoS botnet" attack, with the affected IP address participating in a coordinated denial-of-service attack that caused significant packet loss and required emergency mitigation. This directly aligns with the definition of CAT3: Denial of Service Attack, which includes volumetric DoS or DDoS attacks.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT3', 'Explanation': 'The incident description explicitly mentions a "DDoS botnet" attack, with the target IP address participating in a coordinated attack causing significant packet loss and requiring emergency null-route operation to mitigate. This directly aligns with the definition of a Denial of Service Attack, making CAT3 the appropriate classification.'}</t>
+          <t>{'Category': 'CAT3', 'Explanation': 'The incident description explicitly mentions a "DDoS botnet" attack, with the affected IP address participating in a coordinated denial-of-service attack that caused significant packet loss and required emergency mitigation. This directly aligns with the definition of CAT3: Denial of Service Attack, which includes volumetric DoS or DDoS attacks.'}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The incident description explicitly mentions a "DDoS botnet" attack, with the target IP address participating in a coordinated attack causing significant packet loss and requiring emergency null-route operation to mitigate. This directly aligns with the definition of a Denial of Service Attack, making CAT3 the appropriate classification.</t>
+          <t>The incident description explicitly mentions a "DDoS botnet" attack, with the affected IP address participating in a coordinated denial-of-service attack that caused significant packet loss and required emergency mitigation. This directly aligns with the definition of CAT3: Denial of Service Attack, which includes volumetric DoS or DDoS attacks.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -800,12 +800,12 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Category: CAT5  
-Explanation: The incident description involves a vulnerability exploitation (CVE-2022-37042) in the Zimbra Collaboration Suite software, which allows attackers to upload files, execute arbitrary code without authentication, and gain unauthorized access to user accounts. This directly aligns with the definition of CAT5: Vulnerability Exploitation, as it involves using technical flaws for attacks, specifically the exploitation of a known CVE.</t>
+Explanation: The incident description involves a vulnerability exploitation (CVE-2022-37042) in the Zimbra Collaboration Suite, which allows an attacker to upload files, execute arbitrary code without authentication, and gain unauthorized access to user accounts. This directly aligns with the definition of CAT5: Vulnerability Exploitation, as it involves using a technical flaw for an attack.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT5', 'Explanation': 'The incident description involves a vulnerability exploitation (CVE-2022-37042) in the Zimbra Collaboration Suite software, which allows attackers to upload files, execute arbitrary code without authentication, and gain unauthorized access to user accounts. This directly aligns with the definition of CAT5: Vulnerability Exploitation, as it involves using technical flaws for attacks, specifically the exploitation of a known CVE.'}</t>
+          <t>{'Category': 'CAT5', 'Explanation': 'The incident description involves a vulnerability exploitation (CVE-2022-37042) in the Zimbra Collaboration Suite, which allows an attacker to upload files, execute arbitrary code without authentication, and gain unauthorized access to user accounts. This directly aligns with the definition of CAT5: Vulnerability Exploitation, as it involves using a technical flaw for an attack.'}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The incident description involves a vulnerability exploitation (CVE-2022-37042) in the Zimbra Collaboration Suite software, which allows attackers to upload files, execute arbitrary code without authentication, and gain unauthorized access to user accounts. This directly aligns with the definition of CAT5: Vulnerability Exploitation, as it involves using technical flaws for attacks, specifically the exploitation of a known CVE.</t>
+          <t>The incident description involves a vulnerability exploitation (CVE-2022-37042) in the Zimbra Collaboration Suite, which allows an attacker to upload files, execute arbitrary code without authentication, and gain unauthorized access to user accounts. This directly aligns with the definition of CAT5: Vulnerability Exploitation, as it involves using a technical flaw for an attack.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -828,12 +828,12 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Category: CAT5  
-Explanation: The incident description involves the exposure of BGP (Border Gateway Protocol) services to the Internet, which could lead to denial-of-service attacks and impact network availability. This situation arises due to a technical flaw or misconfiguration in the network equipment, making it a case of vulnerability exploitation. The recommendation to protect the BGP service via ACLs (Access Control Lists) or disable it if unnecessary further supports this classification, as it involves addressing a specific security weakness.</t>
+Explanation: The incident description involves the exposure of BGP (Border Gateway Protocol) services to the Internet, which could lead to denial-of-service attacks and impact network availability. This situation arises due to a technical flaw or misconfiguration, making it an example of vulnerability exploitation. The recommended solution involves implementing ACLs (Access Control Lists) to restrict access to the BGP service, further indicating that the issue is related to exploiting a vulnerability or security flaw in the system's configuration.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT5', 'Explanation': 'The incident description involves the exposure of BGP (Border Gateway Protocol) services to the Internet, which could lead to denial-of-service attacks and impact network availability. This situation arises due to a technical flaw or misconfiguration in the network equipment, making it a case of vulnerability exploitation. The recommendation to protect the BGP service via ACLs (Access Control Lists) or disable it if unnecessary further supports this classification, as it involves addressing a specific security weakness.'}</t>
+          <t>{'Category': 'CAT5', 'Explanation': "The incident description involves the exposure of BGP (Border Gateway Protocol) services to the Internet, which could lead to denial-of-service attacks and impact network availability. This situation arises due to a technical flaw or misconfiguration, making it an example of vulnerability exploitation. The recommended solution involves implementing ACLs (Access Control Lists) to restrict access to the BGP service, further indicating that the issue is related to exploiting a vulnerability or security flaw in the system's configuration."}</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The incident description involves the exposure of BGP (Border Gateway Protocol) services to the Internet, which could lead to denial-of-service attacks and impact network availability. This situation arises due to a technical flaw or misconfiguration in the network equipment, making it a case of vulnerability exploitation. The recommendation to protect the BGP service via ACLs (Access Control Lists) or disable it if unnecessary further supports this classification, as it involves addressing a specific security weakness.</t>
+          <t>The incident description involves the exposure of BGP (Border Gateway Protocol) services to the Internet, which could lead to denial-of-service attacks and impact network availability. This situation arises due to a technical flaw or misconfiguration, making it an example of vulnerability exploitation. The recommended solution involves implementing ACLs (Access Control Lists) to restrict access to the BGP service, further indicating that the issue is related to exploiting a vulnerability or security flaw in the system's configuration.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -856,12 +856,12 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>Category: CAT12  
-Explanation: The incident description reports an IP address performing unwanted activities, including port scans and potential malware/intrusion attempts, which were blocked. This aligns with the definition of a CAT12 Intrusion Attempt, as it involves unconfirmed or prevented attacks, such as network scans and blocked exploit attempts, without confirmation of a successful breach or compromise.</t>
+Explanation: The incident description reports an IP address performing unwanted activities, including port scans and potential malware/intrusion attempts, which were blocked. This aligns with the definition of CAT12: Intrusion Attempt, as it involves unconfirmed or prevented attacks, such as network scans and blocked exploit attempts.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT12', 'Explanation': 'The incident description reports an IP address performing unwanted activities, including port scans and potential malware/intrusion attempts, which were blocked. This aligns with the definition of a CAT12 Intrusion Attempt, as it involves unconfirmed or prevented attacks, such as network scans and blocked exploit attempts, without confirmation of a successful breach or compromise.'}</t>
+          <t>{'Category': 'CAT12', 'Explanation': 'The incident description reports an IP address performing unwanted activities, including port scans and potential malware/intrusion attempts, which were blocked. This aligns with the definition of CAT12: Intrusion Attempt, as it involves unconfirmed or prevented attacks, such as network scans and blocked exploit attempts.'}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The incident description reports an IP address performing unwanted activities, including port scans and potential malware/intrusion attempts, which were blocked. This aligns with the definition of a CAT12 Intrusion Attempt, as it involves unconfirmed or prevented attacks, such as network scans and blocked exploit attempts, without confirmation of a successful breach or compromise.</t>
+          <t>The incident description reports an IP address performing unwanted activities, including port scans and potential malware/intrusion attempts, which were blocked. This aligns with the definition of CAT12: Intrusion Attempt, as it involves unconfirmed or prevented attacks, such as network scans and blocked exploit attempts.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -884,12 +884,12 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>Category: CAT5  
-Explanation: The incident description involves the exploitation of a technical flaw (the SSDP/uPnP service being enabled and accessible via UDP) that could be used for attacks, such as distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, which includes using technical flaws for attacks, such as exploitation of CVE, RCE, SQL injection, or insecure service exposure. The description specifically mentions how the enabled SSDP/uPnP service can be abused for DDoS attacks, making it a clear case of vulnerability exploitation.</t>
+Explanation: The incident description involves the exploitation of a technical flaw in the SSDP/uPnP service, which can be abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, as it uses a security flaw (in this case, the improperly configured or exposed SSDP service) for potential malicious activities.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT5', 'Explanation': 'The incident description involves the exploitation of a technical flaw (the SSDP/uPnP service being enabled and accessible via UDP) that could be used for attacks, such as distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, which includes using technical flaws for attacks, such as exploitation of CVE, RCE, SQL injection, or insecure service exposure. The description specifically mentions how the enabled SSDP/uPnP service can be abused for DDoS attacks, making it a clear case of vulnerability exploitation.'}</t>
+          <t>{'Category': 'CAT5', 'Explanation': 'The incident description involves the exploitation of a technical flaw in the SSDP/uPnP service, which can be abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, as it uses a security flaw (in this case, the improperly configured or exposed SSDP service) for potential malicious activities.'}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The incident description involves the exploitation of a technical flaw (the SSDP/uPnP service being enabled and accessible via UDP) that could be used for attacks, such as distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, which includes using technical flaws for attacks, such as exploitation of CVE, RCE, SQL injection, or insecure service exposure. The description specifically mentions how the enabled SSDP/uPnP service can be abused for DDoS attacks, making it a clear case of vulnerability exploitation.</t>
+          <t>The incident description involves the exploitation of a technical flaw in the SSDP/uPnP service, which can be abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, as it uses a security flaw (in this case, the improperly configured or exposed SSDP service) for potential malicious activities.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -912,12 +912,12 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>Category: CAT5  
-Explanation: The incident description involves a vulnerability exploitation issue, where servers with improperly configured NTP (Network Time Protocol) are susceptible to being abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes the exploitation of technical flaws for attacks, such as the exploitation of insecure service exposure (e.g., NTP monlist). The description specifically mentions that these servers "may be abused to make part of distributed denial of service attacks," indicating a potential for vulnerability exploitation.</t>
+Explanation: The incident description involves a vulnerability exploitation issue, where servers with improperly configured NTP services can be abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes the exploitation of technical flaws for attacks, such as the misuse of insecure service exposure (e.g., NTP monlist). The description specifically mentions that the servers "aceitam determinados comandos, como monlist ou readvar," indicating a vulnerability that can be exploited.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT5', 'Explanation': 'The incident description involves a vulnerability exploitation issue, where servers with improperly configured NTP (Network Time Protocol) are susceptible to being abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes the exploitation of technical flaws for attacks, such as the exploitation of insecure service exposure (e.g., NTP monlist). The description specifically mentions that these servers "may be abused to make part of distributed denial of service attacks," indicating a potential for vulnerability exploitation.'}</t>
+          <t>{'Category': 'CAT5', 'Explanation': 'The incident description involves a vulnerability exploitation issue, where servers with improperly configured NTP services can be abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes the exploitation of technical flaws for attacks, such as the misuse of insecure service exposure (e.g., NTP monlist). The description specifically mentions that the servers "aceitam determinados comandos, como monlist ou readvar," indicating a vulnerability that can be exploited.'}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The incident description involves a vulnerability exploitation issue, where servers with improperly configured NTP (Network Time Protocol) are susceptible to being abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes the exploitation of technical flaws for attacks, such as the exploitation of insecure service exposure (e.g., NTP monlist). The description specifically mentions that these servers "may be abused to make part of distributed denial of service attacks," indicating a potential for vulnerability exploitation.</t>
+          <t>The incident description involves a vulnerability exploitation issue, where servers with improperly configured NTP services can be abused for distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes the exploitation of technical flaws for attacks, such as the misuse of insecure service exposure (e.g., NTP monlist). The description specifically mentions that the servers "aceitam determinados comandos, como monlist ou readvar," indicating a vulnerability that can be exploited.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -940,12 +940,12 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>Category: CAT7  
-Explanation: The incident description involves a phishing scam, which is a form of social engineering where an attacker attempts to deceive individuals into revealing sensitive information. This aligns with the definition of CAT7: Social Engineering, as it involves deception to gain access or data. The mention of "PHISHING SCAM" in the email and the attempt to trick recipients into taking action confirms this classification.</t>
+Explanation: The incident description involves a phishing scam, which is a form of social engineering where an attacker attempts to deceive individuals into revealing sensitive information. This aligns with the definition of CAT7: Social Engineering, as it involves deception to gain access or data. The presence of keywords like "phishing" and the context of the email attempting to trick recipients further support this classification.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a phishing scam, which is a form of social engineering where an attacker attempts to deceive individuals into revealing sensitive information. This aligns with the definition of CAT7: Social Engineering, as it involves deception to gain access or data. The mention of "PHISHING SCAM" in the email and the attempt to trick recipients into taking action confirms this classification.'}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a phishing scam, which is a form of social engineering where an attacker attempts to deceive individuals into revealing sensitive information. This aligns with the definition of CAT7: Social Engineering, as it involves deception to gain access or data. The presence of keywords like "phishing" and the context of the email attempting to trick recipients further support this classification.'}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident description involves a phishing scam, which is a form of social engineering where an attacker attempts to deceive individuals into revealing sensitive information. This aligns with the definition of CAT7: Social Engineering, as it involves deception to gain access or data. The mention of "PHISHING SCAM" in the email and the attempt to trick recipients into taking action confirms this classification.</t>
+          <t>The incident description involves a phishing scam, which is a form of social engineering where an attacker attempts to deceive individuals into revealing sensitive information. This aligns with the definition of CAT7: Social Engineering, as it involves deception to gain access or data. The presence of keywords like "phishing" and the context of the email attempting to trick recipients further support this classification.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -968,12 +968,12 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>Category: CAT7  
-Explanation: The incident description involves a deceptive email attempting to extort users, which is a classic example of social engineering. The email server on the network is sending fraudulent emails, and the notification from Netcraft aims to alert the organization about this issue, requesting them to take action to close down the attack. This scenario aligns with CAT7: Social Engineering, as it involves deception to gain access or manipulate users.</t>
+Explanation: The incident description involves a deceptive email attempting to extort users, which aligns with social engineering tactics. Specifically, it mentions an "email server on your network that is sending e-mail messages that are attempting to extort users," indicating a phishing or scamming attempt, characteristic of social engineering attacks aimed at deceiving individuals into divulging sensitive information or performing certain actions.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a deceptive email attempting to extort users, which is a classic example of social engineering. The email server on the network is sending fraudulent emails, and the notification from Netcraft aims to alert the organization about this issue, requesting them to take action to close down the attack. This scenario aligns with CAT7: Social Engineering, as it involves deception to gain access or manipulate users.'}</t>
+          <t>{'Category': 'CAT7', 'Explanation': 'The incident description involves a deceptive email attempting to extort users, which aligns with social engineering tactics. Specifically, it mentions an "email server on your network that is sending e-mail messages that are attempting to extort users," indicating a phishing or scamming attempt, characteristic of social engineering attacks aimed at deceiving individuals into divulging sensitive information or performing certain actions.'}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The incident description involves a deceptive email attempting to extort users, which is a classic example of social engineering. The email server on the network is sending fraudulent emails, and the notification from Netcraft aims to alert the organization about this issue, requesting them to take action to close down the attack. This scenario aligns with CAT7: Social Engineering, as it involves deception to gain access or manipulate users.</t>
+          <t>The incident description involves a deceptive email attempting to extort users, which aligns with social engineering tactics. Specifically, it mentions an "email server on your network that is sending e-mail messages that are attempting to extort users," indicating a phishing or scamming attempt, characteristic of social engineering attacks aimed at deceiving individuals into divulging sensitive information or performing certain actions.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1052,12 +1052,12 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>Category: CAT9  
-Explanation: The incident description mentions "Desfiguracao de website", which translates to "website defacement", indicating that unauthorized changes were made to a website. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.</t>
+Explanation: The incident description mentions "Desfiguracao de website", which translates to "website defacement", indicating that unauthorized changes were made to a website's content. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT9', 'Explanation': 'The incident description mentions "Desfiguracao de website", which translates to "website defacement", indicating that unauthorized changes were made to a website. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.'}</t>
+          <t>{'Category': 'CAT9', 'Explanation': 'The incident description mentions "Desfiguracao de website", which translates to "website defacement", indicating that unauthorized changes were made to a website\'s content. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.'}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The incident description mentions "Desfiguracao de website", which translates to "website defacement", indicating that unauthorized changes were made to a website. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.</t>
+          <t>The incident description mentions "Desfiguracao de website", which translates to "website defacement", indicating that unauthorized changes were made to a website's content. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1080,12 +1080,12 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>Category: CAT9  
-Explanation: The incident description reports a website defacement, where the content of the website was altered, indicating an unauthorized modification of the system or data, which aligns with the definition of CAT9: Unauthorized Modification.</t>
+Explanation: The incident description reports a website defacement, where the content of the website was altered, which aligns with the definition of "Unauthorized Modification" as improper changes to systems or data, such as website defacement.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT9', 'Explanation': 'The incident description reports a website defacement, where the content of the website was altered, indicating an unauthorized modification of the system or data, which aligns with the definition of CAT9: Unauthorized Modification.'}</t>
+          <t>{'Category': 'CAT9', 'Explanation': 'The incident description reports a website defacement, where the content of the website was altered, which aligns with the definition of "Unauthorized Modification" as improper changes to systems or data, such as website defacement.'}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The incident description reports a website defacement, where the content of the website was altered, indicating an unauthorized modification of the system or data, which aligns with the definition of CAT9: Unauthorized Modification.</t>
+          <t>The incident description reports a website defacement, where the content of the website was altered, which aligns with the definition of "Unauthorized Modification" as improper changes to systems or data, such as website defacement.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1108,12 +1108,12 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>Category: CAT9  
-Explanation: The incident description clearly states that a website's content was altered, as evidenced by the message "Desfiguracao de website" which translates to "website defacement". This directly aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs. The presence of an IFRAME with a hacking claim ("Hacked by theMx0nday") further supports this classification, indicating unauthorized changes were made to the website's content.</t>
+Explanation: The incident description clearly states that a website's content was altered, as evidenced by the message "Desfiguracao de website" which translates to "website defacement". This directly aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'Category': 'CAT9', 'Explanation': 'The incident description clearly states that a website\'s content was altered, as evidenced by the message "Desfiguracao de website" which translates to "website defacement". This directly aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs. The presence of an IFRAME with a hacking claim ("Hacked by theMx0nday") further supports this classification, indicating unauthorized changes were made to the website\'s content.'}</t>
+          <t>{'Category': 'CAT9', 'Explanation': 'The incident description clearly states that a website\'s content was altered, as evidenced by the message "Desfiguracao de website" which translates to "website defacement". This directly aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.'}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident description clearly states that a website's content was altered, as evidenced by the message "Desfiguracao de website" which translates to "website defacement". This directly aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs. The presence of an IFRAME with a hacking claim ("Hacked by theMx0nday") further supports this classification, indicating unauthorized changes were made to the website's content.</t>
+          <t>The incident description clearly states that a website's content was altered, as evidenced by the message "Desfiguracao de website" which translates to "website defacement". This directly aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as website defacement and alteration of records or logs.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
